--- a/data/pca/factorExposure/factorExposure_2010-04-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-20.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01509108486715251</v>
+        <v>-0.01715497831036964</v>
       </c>
       <c r="C2">
-        <v>0.002847164383383694</v>
+        <v>-0.001089210338330595</v>
       </c>
       <c r="D2">
-        <v>0.01068361848026451</v>
+        <v>-0.008027744032075056</v>
       </c>
       <c r="E2">
-        <v>0.01064135730800599</v>
+        <v>0.0003562156463355755</v>
       </c>
       <c r="F2">
-        <v>0.02186913020979816</v>
+        <v>-0.01060181121092584</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1165819939310479</v>
+        <v>-0.09330738910785669</v>
       </c>
       <c r="C4">
-        <v>-0.06139232514184315</v>
+        <v>-0.01663553167099724</v>
       </c>
       <c r="D4">
-        <v>0.06385912214001851</v>
+        <v>-0.08378899414119492</v>
       </c>
       <c r="E4">
-        <v>-0.006915578219161445</v>
+        <v>-0.03042887663172619</v>
       </c>
       <c r="F4">
-        <v>0.01808285269819452</v>
+        <v>0.03225132878218075</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1236177938745372</v>
+        <v>-0.1533470646835391</v>
       </c>
       <c r="C6">
-        <v>-0.01871617632950389</v>
+        <v>-0.0248601877689596</v>
       </c>
       <c r="D6">
-        <v>0.03425788006636814</v>
+        <v>0.02147254847520383</v>
       </c>
       <c r="E6">
-        <v>0.02827496821305323</v>
+        <v>-0.01007346313139789</v>
       </c>
       <c r="F6">
-        <v>-0.05361507945275597</v>
+        <v>0.04172752352535446</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06730953495153398</v>
+        <v>-0.05964721749490691</v>
       </c>
       <c r="C7">
-        <v>-0.03944496569619171</v>
+        <v>0.0005932717520271476</v>
       </c>
       <c r="D7">
-        <v>0.07789294678135601</v>
+        <v>-0.05193662802348551</v>
       </c>
       <c r="E7">
-        <v>0.02364586482867692</v>
+        <v>-0.01504672412571783</v>
       </c>
       <c r="F7">
-        <v>0.04777109175044462</v>
+        <v>0.05285632303854581</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05475040659905597</v>
+        <v>-0.05855192180451353</v>
       </c>
       <c r="C8">
-        <v>-0.02748867417587807</v>
+        <v>0.01282537771707138</v>
       </c>
       <c r="D8">
-        <v>0.05001194004972537</v>
+        <v>-0.03050975036042492</v>
       </c>
       <c r="E8">
-        <v>-0.01618095508048373</v>
+        <v>-0.01509471670270478</v>
       </c>
       <c r="F8">
-        <v>-0.01495066837810739</v>
+        <v>-0.02963350817758245</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08179274846708669</v>
+        <v>-0.07126539107658536</v>
       </c>
       <c r="C9">
-        <v>-0.03807950701507379</v>
+        <v>-0.01276973343079075</v>
       </c>
       <c r="D9">
-        <v>0.04939679072519906</v>
+        <v>-0.08318662291188339</v>
       </c>
       <c r="E9">
-        <v>-0.01723690521723955</v>
+        <v>-0.02493998414168025</v>
       </c>
       <c r="F9">
-        <v>0.01042002887172444</v>
+        <v>0.05397060001204072</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1184587005373723</v>
+        <v>-0.09433901917236262</v>
       </c>
       <c r="C10">
-        <v>0.1346477083976109</v>
+        <v>-0.01709251674362954</v>
       </c>
       <c r="D10">
-        <v>-0.08611496178138779</v>
+        <v>0.1711808147369145</v>
       </c>
       <c r="E10">
-        <v>0.02475854577559619</v>
+        <v>0.03883765411689871</v>
       </c>
       <c r="F10">
-        <v>0.02657767902087055</v>
+        <v>-0.0528604936285964</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07599905282991512</v>
+        <v>-0.08752894869834028</v>
       </c>
       <c r="C11">
-        <v>-0.03127522645850481</v>
+        <v>-0.01204313936221912</v>
       </c>
       <c r="D11">
-        <v>0.07454855314895972</v>
+        <v>-0.1147794378000678</v>
       </c>
       <c r="E11">
-        <v>-0.02372349861105055</v>
+        <v>-0.04860377360807423</v>
       </c>
       <c r="F11">
-        <v>0.004177072653195429</v>
+        <v>0.01974818990632312</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07169142934781311</v>
+        <v>-0.09245989744569481</v>
       </c>
       <c r="C12">
-        <v>-0.02820196634439847</v>
+        <v>-0.009853493980219627</v>
       </c>
       <c r="D12">
-        <v>0.07966502494603342</v>
+        <v>-0.1223181383541588</v>
       </c>
       <c r="E12">
-        <v>-0.05573076572134521</v>
+        <v>-0.04780098264963352</v>
       </c>
       <c r="F12">
-        <v>0.02657925909476396</v>
+        <v>0.02142741483756202</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.02966698956756315</v>
+        <v>-0.04257189252023733</v>
       </c>
       <c r="C13">
-        <v>-0.01994227759420546</v>
+        <v>-0.003841023732190368</v>
       </c>
       <c r="D13">
-        <v>0.01864228972662397</v>
+        <v>-0.04805425933889469</v>
       </c>
       <c r="E13">
-        <v>0.016934074575077</v>
+        <v>0.01175967393441574</v>
       </c>
       <c r="F13">
-        <v>0.01285984697008162</v>
+        <v>0.01231279040559827</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03850640130824812</v>
+        <v>-0.02187279603183321</v>
       </c>
       <c r="C14">
-        <v>-0.02183552450376805</v>
+        <v>-0.01427539759093122</v>
       </c>
       <c r="D14">
-        <v>0.02343197532797428</v>
+        <v>-0.03345761087170435</v>
       </c>
       <c r="E14">
-        <v>-0.01821235748030313</v>
+        <v>-0.01859927121586926</v>
       </c>
       <c r="F14">
-        <v>-0.0003325010388624113</v>
+        <v>0.01817999360802441</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01713399296440899</v>
+        <v>-0.03173488211918619</v>
       </c>
       <c r="C15">
-        <v>-0.01061817159995448</v>
+        <v>-0.005593859293053946</v>
       </c>
       <c r="D15">
-        <v>0.0091185669200221</v>
+        <v>-0.04505736054566348</v>
       </c>
       <c r="E15">
-        <v>0.04889187749328436</v>
+        <v>-0.008881153942033773</v>
       </c>
       <c r="F15">
-        <v>0.00336951400002277</v>
+        <v>0.03058272000724012</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08052126084021229</v>
+        <v>-0.0738888883306974</v>
       </c>
       <c r="C16">
-        <v>-0.02362319448858822</v>
+        <v>-0.003650987325570784</v>
       </c>
       <c r="D16">
-        <v>0.08071607181028317</v>
+        <v>-0.1168608677737632</v>
       </c>
       <c r="E16">
-        <v>-0.03609020436087804</v>
+        <v>-0.06337978568127804</v>
       </c>
       <c r="F16">
-        <v>-0.003558516090983054</v>
+        <v>0.02997703143083168</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02234370591137733</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003634617010722809</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02020446626576971</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0101948906284779</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02113634631583842</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04977956704660914</v>
+        <v>-0.061082848161725</v>
       </c>
       <c r="C20">
-        <v>-0.05050103729842136</v>
+        <v>-0.001541994609419921</v>
       </c>
       <c r="D20">
-        <v>0.01033257587134599</v>
+        <v>-0.0746859118392269</v>
       </c>
       <c r="E20">
-        <v>0.01534679423518949</v>
+        <v>-0.05589202045881349</v>
       </c>
       <c r="F20">
-        <v>0.02283216536400195</v>
+        <v>0.02757790934697384</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02857710296818886</v>
+        <v>-0.03897131262898782</v>
       </c>
       <c r="C21">
-        <v>-0.02258963325070871</v>
+        <v>-0.007153327950321599</v>
       </c>
       <c r="D21">
-        <v>-0.008004914939940733</v>
+        <v>-0.03705455931699928</v>
       </c>
       <c r="E21">
-        <v>-0.02182574097039126</v>
+        <v>0.007849102848199167</v>
       </c>
       <c r="F21">
-        <v>-0.008033394770466608</v>
+        <v>-0.01961492962911283</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03346889474026016</v>
+        <v>-0.04194033903203229</v>
       </c>
       <c r="C22">
-        <v>0.002820922218428166</v>
+        <v>1.34005838371379e-05</v>
       </c>
       <c r="D22">
-        <v>-0.00393313965032345</v>
+        <v>-0.003007257027917697</v>
       </c>
       <c r="E22">
-        <v>0.62781210955155</v>
+        <v>-0.02913782394750319</v>
       </c>
       <c r="F22">
-        <v>0.07626363144445611</v>
+        <v>-0.007965439442027527</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03374737804146622</v>
+        <v>-0.04200023907293284</v>
       </c>
       <c r="C23">
-        <v>0.002716767391999597</v>
+        <v>-1.086611499409726e-05</v>
       </c>
       <c r="D23">
-        <v>-0.002030780893688188</v>
+        <v>-0.00313051334256042</v>
       </c>
       <c r="E23">
-        <v>0.6309166338726631</v>
+        <v>-0.02948649459819877</v>
       </c>
       <c r="F23">
-        <v>0.07536104929070342</v>
+        <v>-0.007502592131548825</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08183021218471792</v>
+        <v>-0.0802857423433917</v>
       </c>
       <c r="C24">
-        <v>-0.03770509749055976</v>
+        <v>-0.003904214527021583</v>
       </c>
       <c r="D24">
-        <v>0.06283593019343627</v>
+        <v>-0.1178998504431349</v>
       </c>
       <c r="E24">
-        <v>-0.03650239021798003</v>
+        <v>-0.05096489640266634</v>
       </c>
       <c r="F24">
-        <v>0.006081731919755829</v>
+        <v>0.02270217709414673</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08641295913705967</v>
+        <v>-0.0849698749550855</v>
       </c>
       <c r="C25">
-        <v>-0.02889490694608401</v>
+        <v>-0.005935281223848239</v>
       </c>
       <c r="D25">
-        <v>0.07741855138545649</v>
+        <v>-0.1064319100332735</v>
       </c>
       <c r="E25">
-        <v>-0.05958582224102493</v>
+        <v>-0.03420915320690361</v>
       </c>
       <c r="F25">
-        <v>0.02260502256614054</v>
+        <v>0.02968776765471136</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04058877601562387</v>
+        <v>-0.05528745116181767</v>
       </c>
       <c r="C26">
-        <v>-0.001759076731037001</v>
+        <v>-0.01508343260689364</v>
       </c>
       <c r="D26">
-        <v>-0.008544897466499175</v>
+        <v>-0.03628179993248798</v>
       </c>
       <c r="E26">
-        <v>0.01366119716715712</v>
+        <v>-0.02833877887137935</v>
       </c>
       <c r="F26">
-        <v>-0.0262472467319144</v>
+        <v>-0.009543095476805047</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1394410235097472</v>
+        <v>-0.142472030621871</v>
       </c>
       <c r="C28">
-        <v>0.2654635456942424</v>
+        <v>-0.01523096495646031</v>
       </c>
       <c r="D28">
-        <v>-0.1281527296592074</v>
+        <v>0.2668120771194484</v>
       </c>
       <c r="E28">
-        <v>-0.0130514906431412</v>
+        <v>0.06897487078195949</v>
       </c>
       <c r="F28">
-        <v>-0.04686860873788802</v>
+        <v>0.02942071795318574</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03315742486666079</v>
+        <v>-0.02695870875691924</v>
       </c>
       <c r="C29">
-        <v>-0.008276119070316348</v>
+        <v>-0.008536847663550416</v>
       </c>
       <c r="D29">
-        <v>0.02945211435251102</v>
+        <v>-0.03195935267540786</v>
       </c>
       <c r="E29">
-        <v>-0.02521668789322046</v>
+        <v>-0.01164253391732181</v>
       </c>
       <c r="F29">
-        <v>0.03517714402031469</v>
+        <v>-0.01244373502128823</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09776359755047982</v>
+        <v>-0.06356343425186703</v>
       </c>
       <c r="C30">
-        <v>-0.04591233899894163</v>
+        <v>-0.005159516454119301</v>
       </c>
       <c r="D30">
-        <v>0.1002378983536164</v>
+        <v>-0.08423133122289893</v>
       </c>
       <c r="E30">
-        <v>-0.05771054598883578</v>
+        <v>-0.02458847273936271</v>
       </c>
       <c r="F30">
-        <v>-0.03680299200084598</v>
+        <v>0.1061804878551476</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0298783783764284</v>
+        <v>-0.04848496293040283</v>
       </c>
       <c r="C31">
-        <v>-0.03493224881755115</v>
+        <v>-0.01501322590445532</v>
       </c>
       <c r="D31">
-        <v>0.02302708142381401</v>
+        <v>-0.02818034518441031</v>
       </c>
       <c r="E31">
-        <v>4.210668905007391e-05</v>
+        <v>-0.02738005779053695</v>
       </c>
       <c r="F31">
-        <v>0.01656173503272907</v>
+        <v>-0.003599072256546081</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05875334328411422</v>
+        <v>-0.04805424454917477</v>
       </c>
       <c r="C32">
-        <v>-0.02503253840747912</v>
+        <v>-3.188838455236712e-05</v>
       </c>
       <c r="D32">
-        <v>-4.081330435527846e-05</v>
+        <v>-0.03087201817075621</v>
       </c>
       <c r="E32">
-        <v>-0.07831227101014934</v>
+        <v>-0.02982436420734237</v>
       </c>
       <c r="F32">
-        <v>-0.06833589148480117</v>
+        <v>0.001908680116522068</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08772532200618569</v>
+        <v>-0.09011628588525152</v>
       </c>
       <c r="C33">
-        <v>-0.01332240116801321</v>
+        <v>-0.009054506472406718</v>
       </c>
       <c r="D33">
-        <v>0.09512953413936517</v>
+        <v>-0.09448948698173541</v>
       </c>
       <c r="E33">
-        <v>-0.0264666242171133</v>
+        <v>-0.04668854167557902</v>
       </c>
       <c r="F33">
-        <v>0.01723323929156635</v>
+        <v>0.04144285280127939</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06899494147568531</v>
+        <v>-0.0679988103549603</v>
       </c>
       <c r="C34">
-        <v>-0.01991312131742136</v>
+        <v>-0.01219312896729828</v>
       </c>
       <c r="D34">
-        <v>0.05728862643429768</v>
+        <v>-0.09847103625837504</v>
       </c>
       <c r="E34">
-        <v>-0.03240139561784981</v>
+        <v>-0.03564779044265365</v>
       </c>
       <c r="F34">
-        <v>0.008131321224678668</v>
+        <v>0.04169630815371417</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01241905041808265</v>
+        <v>-0.02449556555259341</v>
       </c>
       <c r="C35">
-        <v>-0.005091437214132521</v>
+        <v>-0.00238220996052577</v>
       </c>
       <c r="D35">
-        <v>0.01809318658713473</v>
+        <v>-0.0119681725950938</v>
       </c>
       <c r="E35">
-        <v>-0.0008676462611527962</v>
+        <v>-0.01141369424754594</v>
       </c>
       <c r="F35">
-        <v>0.01662820526145442</v>
+        <v>0.009728876266244657</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02463155234145745</v>
+        <v>-0.02413411271591666</v>
       </c>
       <c r="C36">
-        <v>-0.01052513287264832</v>
+        <v>-0.007295745855201576</v>
       </c>
       <c r="D36">
-        <v>0.01515289245889167</v>
+        <v>-0.03838588787769933</v>
       </c>
       <c r="E36">
-        <v>0.003052708162576595</v>
+        <v>-0.01747963401310025</v>
       </c>
       <c r="F36">
-        <v>-0.001345744610705605</v>
+        <v>0.01062929709200116</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.00895221030954447</v>
+        <v>-0.001656101480334636</v>
       </c>
       <c r="C38">
-        <v>-0.007764452792197646</v>
+        <v>-0.0002745482021118813</v>
       </c>
       <c r="D38">
-        <v>0.01252579328622306</v>
+        <v>-0.001213167584206921</v>
       </c>
       <c r="E38">
-        <v>0.02179554471622791</v>
+        <v>-0.001516766818018676</v>
       </c>
       <c r="F38">
-        <v>0.03010117809086779</v>
+        <v>-0.0005547897111251805</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1145741311801951</v>
+        <v>-0.108831986248984</v>
       </c>
       <c r="C39">
-        <v>-0.0437177303043638</v>
+        <v>-0.01742929144550835</v>
       </c>
       <c r="D39">
-        <v>0.1325473590278706</v>
+        <v>-0.1532393335023237</v>
       </c>
       <c r="E39">
-        <v>-0.1376738849058338</v>
+        <v>-0.06106221527677881</v>
       </c>
       <c r="F39">
-        <v>0.02995002642233677</v>
+        <v>0.02863457876678797</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0094949719788474</v>
+        <v>-0.03706427583757642</v>
       </c>
       <c r="C40">
-        <v>-0.05026228572602888</v>
+        <v>-0.007148583850402596</v>
       </c>
       <c r="D40">
-        <v>0.01639873503175467</v>
+        <v>-0.03214908036918605</v>
       </c>
       <c r="E40">
-        <v>0.06393896768667369</v>
+        <v>-0.003179102160742362</v>
       </c>
       <c r="F40">
-        <v>0.04713450293972585</v>
+        <v>-0.01330082830868114</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02870898291653278</v>
+        <v>-0.0261345942898471</v>
       </c>
       <c r="C41">
-        <v>-0.01049358186216092</v>
+        <v>-0.006637908862028159</v>
       </c>
       <c r="D41">
-        <v>0.01057471352237922</v>
+        <v>-0.01137111384656623</v>
       </c>
       <c r="E41">
-        <v>-0.007221406498543165</v>
+        <v>-0.01229384573260497</v>
       </c>
       <c r="F41">
-        <v>0.01285592576409289</v>
+        <v>-0.009518775933173367</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03873887393219626</v>
+        <v>-0.04089967980279299</v>
       </c>
       <c r="C43">
-        <v>0.001658000911596188</v>
+        <v>-0.006777162853993696</v>
       </c>
       <c r="D43">
-        <v>0.02962520435703933</v>
+        <v>-0.02066443971934202</v>
       </c>
       <c r="E43">
-        <v>-0.001184945134372198</v>
+        <v>-0.02480553002446348</v>
       </c>
       <c r="F43">
-        <v>0.002135341821295282</v>
+        <v>-0.01156959990568813</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1165069319087229</v>
+        <v>-0.07223814206491966</v>
       </c>
       <c r="C44">
-        <v>-0.0773672079751327</v>
+        <v>-0.02188253457257458</v>
       </c>
       <c r="D44">
-        <v>0.1516255120678133</v>
+        <v>-0.101203311728944</v>
       </c>
       <c r="E44">
-        <v>0.1049488855280119</v>
+        <v>-0.06839117654581099</v>
       </c>
       <c r="F44">
-        <v>0.1138263819709643</v>
+        <v>0.1686781566006161</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02274875908574709</v>
+        <v>-0.02200239952632689</v>
       </c>
       <c r="C46">
-        <v>0.01628793617042512</v>
+        <v>-0.003628098875340784</v>
       </c>
       <c r="D46">
-        <v>0.02251173633521971</v>
+        <v>-0.01291177287831194</v>
       </c>
       <c r="E46">
-        <v>0.02994718394501033</v>
+        <v>-0.02341165184249697</v>
       </c>
       <c r="F46">
-        <v>0.02458902577437904</v>
+        <v>0.001014273440777437</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03816448210842296</v>
+        <v>-0.05196468575196526</v>
       </c>
       <c r="C47">
-        <v>-0.02030660056540971</v>
+        <v>-0.003287521586886692</v>
       </c>
       <c r="D47">
-        <v>0.01827196731229172</v>
+        <v>-0.01262217970742416</v>
       </c>
       <c r="E47">
-        <v>-0.009646372207823611</v>
+        <v>-0.0224893013258567</v>
       </c>
       <c r="F47">
-        <v>0.005030146818585376</v>
+        <v>-0.04444356727062827</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04247200045432014</v>
+        <v>-0.04790936052109614</v>
       </c>
       <c r="C48">
-        <v>-0.009583661647698019</v>
+        <v>-0.003017847182385766</v>
       </c>
       <c r="D48">
-        <v>0.01345703163942131</v>
+        <v>-0.04808008678079374</v>
       </c>
       <c r="E48">
-        <v>-0.007193955882748673</v>
+        <v>0.004390623446531234</v>
       </c>
       <c r="F48">
-        <v>0.01823307519201539</v>
+        <v>0.0109560046943862</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2246512581934475</v>
+        <v>-0.2032195798859206</v>
       </c>
       <c r="C49">
-        <v>-0.01198182759398674</v>
+        <v>-0.01794946720042289</v>
       </c>
       <c r="D49">
-        <v>-0.06947563497643269</v>
+        <v>0.01268447339708941</v>
       </c>
       <c r="E49">
-        <v>-0.02475098286039216</v>
+        <v>-0.03339670819941366</v>
       </c>
       <c r="F49">
-        <v>0.03289146978846986</v>
+        <v>0.03448732394828063</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03830835447606527</v>
+        <v>-0.0482304270059206</v>
       </c>
       <c r="C50">
-        <v>-0.02610214839321198</v>
+        <v>-0.0110925458685323</v>
       </c>
       <c r="D50">
-        <v>0.01111466307733483</v>
+        <v>-0.0267914165001468</v>
       </c>
       <c r="E50">
-        <v>-0.01304692157548407</v>
+        <v>-0.02933498823855539</v>
       </c>
       <c r="F50">
-        <v>0.007275916729124837</v>
+        <v>0.009242561791221173</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01430312902699964</v>
+        <v>-0.002455735105485492</v>
       </c>
       <c r="C51">
-        <v>0.02773339718587481</v>
+        <v>-0.0006432056605718027</v>
       </c>
       <c r="D51">
-        <v>0.001709979030787259</v>
+        <v>0.002919479070304506</v>
       </c>
       <c r="E51">
-        <v>0.009422896262185246</v>
+        <v>0.000458004325957976</v>
       </c>
       <c r="F51">
-        <v>0.01104508953044736</v>
+        <v>0.005584448961068103</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.09935590645019883</v>
+        <v>-0.1450046478017249</v>
       </c>
       <c r="C52">
-        <v>-0.07660461284783225</v>
+        <v>-0.0135970924780961</v>
       </c>
       <c r="D52">
-        <v>0.05396901533438501</v>
+        <v>-0.05167695405871564</v>
       </c>
       <c r="E52">
-        <v>-0.02284602031678124</v>
+        <v>-0.02389934265541143</v>
       </c>
       <c r="F52">
-        <v>0.03329960280075274</v>
+        <v>0.03554213701599906</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1606493906191975</v>
+        <v>-0.1741687338831044</v>
       </c>
       <c r="C53">
-        <v>-0.04283840291426616</v>
+        <v>-0.01666091104117463</v>
       </c>
       <c r="D53">
-        <v>0.02464659420507462</v>
+        <v>-0.01158975952380306</v>
       </c>
       <c r="E53">
-        <v>0.01379956206060321</v>
+        <v>-0.03612732472884678</v>
       </c>
       <c r="F53">
-        <v>0.04433028745214428</v>
+        <v>0.06621277085186164</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05111678246521681</v>
+        <v>-0.02134282811538914</v>
       </c>
       <c r="C54">
-        <v>-0.04833932143879574</v>
+        <v>-0.01249512333779028</v>
       </c>
       <c r="D54">
-        <v>0.03812081458648836</v>
+        <v>-0.03368617897146387</v>
       </c>
       <c r="E54">
-        <v>0.02293480623470034</v>
+        <v>-0.01532089583363172</v>
       </c>
       <c r="F54">
-        <v>0.007392761827420799</v>
+        <v>-0.006377922612297296</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08472634432220981</v>
+        <v>-0.1140663789014533</v>
       </c>
       <c r="C55">
-        <v>0.0007170282193578489</v>
+        <v>-0.01514623947170892</v>
       </c>
       <c r="D55">
-        <v>0.07274456645431888</v>
+        <v>-0.01168362958623789</v>
       </c>
       <c r="E55">
-        <v>-0.02305483128340149</v>
+        <v>-0.03035132454371608</v>
       </c>
       <c r="F55">
-        <v>0.02760369890111501</v>
+        <v>0.04647278756582851</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.154799305084257</v>
+        <v>-0.1779240178994881</v>
       </c>
       <c r="C56">
-        <v>-0.04314711045995089</v>
+        <v>-0.01391253870071437</v>
       </c>
       <c r="D56">
-        <v>0.05747294138446681</v>
+        <v>-0.007276857067214003</v>
       </c>
       <c r="E56">
-        <v>-0.01360677496858196</v>
+        <v>-0.04043645619525663</v>
       </c>
       <c r="F56">
-        <v>0.0835787695851395</v>
+        <v>0.0423229287641499</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.05088282411315677</v>
+        <v>-0.04673468041472045</v>
       </c>
       <c r="C58">
-        <v>-0.03530701338648213</v>
+        <v>-0.001998830520392178</v>
       </c>
       <c r="D58">
-        <v>0.01704293250078991</v>
+        <v>-0.06525977003214674</v>
       </c>
       <c r="E58">
-        <v>0.05206957396480419</v>
+        <v>-0.02284540187949005</v>
       </c>
       <c r="F58">
-        <v>0.01505447806251007</v>
+        <v>-0.04443190133431551</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1919869346687766</v>
+        <v>-0.1714462495035242</v>
       </c>
       <c r="C59">
-        <v>0.2282736818573052</v>
+        <v>-0.01646716792655009</v>
       </c>
       <c r="D59">
-        <v>-0.09470471899576619</v>
+        <v>0.2244068233239937</v>
       </c>
       <c r="E59">
-        <v>-0.02604581264854594</v>
+        <v>0.04942832608664213</v>
       </c>
       <c r="F59">
-        <v>-0.01422533921545264</v>
+        <v>-0.03399492186049206</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2440590276201666</v>
+        <v>-0.2367888739306336</v>
       </c>
       <c r="C60">
-        <v>-0.1145715911806219</v>
+        <v>0.003766351064234185</v>
       </c>
       <c r="D60">
-        <v>-0.003626030642807523</v>
+        <v>-0.04634435787695158</v>
       </c>
       <c r="E60">
-        <v>-0.0402355518581516</v>
+        <v>-0.007255915376894465</v>
       </c>
       <c r="F60">
-        <v>0.1020554029920304</v>
+        <v>-0.02963202052068564</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1083752042194067</v>
+        <v>-0.08342205034737331</v>
       </c>
       <c r="C61">
-        <v>-0.02323813794707704</v>
+        <v>-0.013706282225796</v>
       </c>
       <c r="D61">
-        <v>0.09320569385107207</v>
+        <v>-0.112974383236131</v>
       </c>
       <c r="E61">
-        <v>-0.08635856234517224</v>
+        <v>-0.04199716640173119</v>
       </c>
       <c r="F61">
-        <v>0.05401511466578648</v>
+        <v>0.01455675852553182</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1518418430569393</v>
+        <v>-0.1704883098991608</v>
       </c>
       <c r="C62">
-        <v>-0.02998757227039132</v>
+        <v>-0.01790007784679767</v>
       </c>
       <c r="D62">
-        <v>0.04220404222968384</v>
+        <v>-0.01064114217836218</v>
       </c>
       <c r="E62">
-        <v>0.004980055014372095</v>
+        <v>-0.03797863520613059</v>
       </c>
       <c r="F62">
-        <v>0.05460177683635287</v>
+        <v>0.02342020101448579</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04132385278690093</v>
+        <v>-0.0428695321973536</v>
       </c>
       <c r="C63">
-        <v>-0.005557679043117555</v>
+        <v>-0.003146751043647921</v>
       </c>
       <c r="D63">
-        <v>0.01776196610817824</v>
+        <v>-0.05150362180266684</v>
       </c>
       <c r="E63">
-        <v>-0.008693156314947475</v>
+        <v>-0.02291532003520102</v>
       </c>
       <c r="F63">
-        <v>-0.03860149361771537</v>
+        <v>0.007141872385831875</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09507088910898283</v>
+        <v>-0.1120153859279185</v>
       </c>
       <c r="C64">
-        <v>-0.03364715703781194</v>
+        <v>-0.01171160543220671</v>
       </c>
       <c r="D64">
-        <v>0.02822260019683828</v>
+        <v>-0.04315808314429672</v>
       </c>
       <c r="E64">
-        <v>-0.0008372272535120293</v>
+        <v>-0.02195977196442235</v>
       </c>
       <c r="F64">
-        <v>0.07262334635185926</v>
+        <v>0.02372278478622779</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1148157195628159</v>
+        <v>-0.1444441753428288</v>
       </c>
       <c r="C65">
-        <v>-0.01478772469091459</v>
+        <v>-0.03133963093943062</v>
       </c>
       <c r="D65">
-        <v>0.01965036879994205</v>
+        <v>0.04236646401090672</v>
       </c>
       <c r="E65">
-        <v>-0.00957015971887658</v>
+        <v>-0.0006361234148051413</v>
       </c>
       <c r="F65">
-        <v>-0.06241028608755574</v>
+        <v>0.0426696628466111</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1308402431796589</v>
+        <v>-0.1299644905066461</v>
       </c>
       <c r="C66">
-        <v>-0.06106040846157177</v>
+        <v>-0.01523471633994995</v>
       </c>
       <c r="D66">
-        <v>0.1397483352419392</v>
+        <v>-0.1410667797776347</v>
       </c>
       <c r="E66">
-        <v>-0.1165438814796403</v>
+        <v>-0.06794547479936537</v>
       </c>
       <c r="F66">
-        <v>0.05454816455613</v>
+        <v>0.03306192563361435</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05042093961685071</v>
+        <v>-0.06242606976611075</v>
       </c>
       <c r="C67">
-        <v>0.02509482838879433</v>
+        <v>-0.003329488781304722</v>
       </c>
       <c r="D67">
-        <v>0.06421006388469547</v>
+        <v>-0.05299904256536451</v>
       </c>
       <c r="E67">
-        <v>0.03630209856565687</v>
+        <v>-0.01886686851722009</v>
       </c>
       <c r="F67">
-        <v>0.01390065888348696</v>
+        <v>-0.03828736761296407</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1197123729358346</v>
+        <v>-0.1160401425705165</v>
       </c>
       <c r="C68">
-        <v>0.2223619505589375</v>
+        <v>-0.02617411484903699</v>
       </c>
       <c r="D68">
-        <v>-0.1150650807203653</v>
+        <v>0.2639203152273686</v>
       </c>
       <c r="E68">
-        <v>-0.02508306087711468</v>
+        <v>0.08699921372960488</v>
       </c>
       <c r="F68">
-        <v>-0.05765016280611624</v>
+        <v>0.03336242320248742</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0323590912256581</v>
+        <v>-0.03939970625571181</v>
       </c>
       <c r="C69">
-        <v>0.03282477422009319</v>
+        <v>-0.00103833834453883</v>
       </c>
       <c r="D69">
-        <v>0.01938610719588494</v>
+        <v>-0.009264230601329406</v>
       </c>
       <c r="E69">
-        <v>0.006503843581879544</v>
+        <v>-0.02437434758948651</v>
       </c>
       <c r="F69">
-        <v>0.008575377620346662</v>
+        <v>-0.01211187331829859</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03236833460452122</v>
+        <v>-0.06323863856935276</v>
       </c>
       <c r="C70">
-        <v>0.01811415391126313</v>
+        <v>0.02783839041512004</v>
       </c>
       <c r="D70">
-        <v>0.03557851954805931</v>
+        <v>-0.02721900361244223</v>
       </c>
       <c r="E70">
-        <v>-0.0356385864554075</v>
+        <v>0.04705279348246546</v>
       </c>
       <c r="F70">
-        <v>0.03852971133216666</v>
+        <v>-0.2747347738360817</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1375624631129036</v>
+        <v>-0.1351904902433052</v>
       </c>
       <c r="C71">
-        <v>0.2445987801436469</v>
+        <v>-0.03025185547322456</v>
       </c>
       <c r="D71">
-        <v>-0.1214036574913458</v>
+        <v>0.2789638340586066</v>
       </c>
       <c r="E71">
-        <v>-0.0133284175811127</v>
+        <v>0.09543633170463854</v>
       </c>
       <c r="F71">
-        <v>-0.01775733109160062</v>
+        <v>0.03957754179921471</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.141583501614844</v>
+        <v>-0.140631784495354</v>
       </c>
       <c r="C72">
-        <v>-0.02259531184103537</v>
+        <v>-0.02466743584042993</v>
       </c>
       <c r="D72">
-        <v>0.01839517440064983</v>
+        <v>-0.004795808748055948</v>
       </c>
       <c r="E72">
-        <v>0.01080476918978361</v>
+        <v>-0.0453052379534325</v>
       </c>
       <c r="F72">
-        <v>0.0008845754010664678</v>
+        <v>0.02365535961321337</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.215147328920994</v>
+        <v>-0.2038622345202438</v>
       </c>
       <c r="C73">
-        <v>-0.001974750503386965</v>
+        <v>-0.01169996487328396</v>
       </c>
       <c r="D73">
-        <v>0.04484164556962378</v>
+        <v>-0.01540081658327919</v>
       </c>
       <c r="E73">
-        <v>-0.06018674472332255</v>
+        <v>-0.06222637476411006</v>
       </c>
       <c r="F73">
-        <v>0.1713519519514229</v>
+        <v>0.03711609780194938</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1197470211766597</v>
+        <v>-0.09449587382624203</v>
       </c>
       <c r="C74">
-        <v>-0.04463786113789702</v>
+        <v>-0.01224685100373431</v>
       </c>
       <c r="D74">
-        <v>0.07695207866335944</v>
+        <v>-0.0211116633271594</v>
       </c>
       <c r="E74">
-        <v>0.002748372996156004</v>
+        <v>-0.04826597689282403</v>
       </c>
       <c r="F74">
-        <v>0.03742509745235177</v>
+        <v>0.046394077452409</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1123275643287839</v>
+        <v>-0.1299046847333167</v>
       </c>
       <c r="C75">
-        <v>-0.05313910443886631</v>
+        <v>-0.02635195539579668</v>
       </c>
       <c r="D75">
-        <v>0.03791158437168935</v>
+        <v>-0.03418317531238129</v>
       </c>
       <c r="E75">
-        <v>-8.720161467197867e-05</v>
+        <v>-0.06112604903419515</v>
       </c>
       <c r="F75">
-        <v>0.02289909031454125</v>
+        <v>0.01483094198876465</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02395421554752952</v>
+        <v>-0.00397433344287219</v>
       </c>
       <c r="C76">
-        <v>0.01915662821339572</v>
+        <v>-0.0009368295392060194</v>
       </c>
       <c r="D76">
-        <v>0.004997444545913346</v>
+        <v>0.002525155798938352</v>
       </c>
       <c r="E76">
-        <v>-0.008062240347968104</v>
+        <v>-0.0008936945222316325</v>
       </c>
       <c r="F76">
-        <v>0.0218110600775912</v>
+        <v>0.004249889224037525</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06408277792921117</v>
+        <v>-0.07912918834019141</v>
       </c>
       <c r="C77">
-        <v>-0.04907171285082356</v>
+        <v>-0.009768488521091075</v>
       </c>
       <c r="D77">
-        <v>0.01165420426261399</v>
+        <v>-0.1136057277961688</v>
       </c>
       <c r="E77">
-        <v>0.003461481071227286</v>
+        <v>-0.0382107576271342</v>
       </c>
       <c r="F77">
-        <v>0.06219969234693729</v>
+        <v>0.03635319822000452</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1071310839147547</v>
+        <v>-0.1052119486422505</v>
       </c>
       <c r="C78">
-        <v>-0.05610406530321158</v>
+        <v>-0.04157846703104882</v>
       </c>
       <c r="D78">
-        <v>0.1059657163603547</v>
+        <v>-0.1143386158468778</v>
       </c>
       <c r="E78">
-        <v>0.2734923645039095</v>
+        <v>-0.08114179316428456</v>
       </c>
       <c r="F78">
-        <v>-0.1762300356129329</v>
+        <v>0.07818562529776932</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1346279853057308</v>
+        <v>-0.1646452193030983</v>
       </c>
       <c r="C79">
-        <v>-0.05717902681846178</v>
+        <v>-0.02036089331962103</v>
       </c>
       <c r="D79">
-        <v>0.01595135952550874</v>
+        <v>-0.01930100031540808</v>
       </c>
       <c r="E79">
-        <v>-0.005619102415369498</v>
+        <v>-0.04986662828486925</v>
       </c>
       <c r="F79">
-        <v>0.03301431867055959</v>
+        <v>0.006970611935980369</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07276726302631314</v>
+        <v>-0.08048688740161226</v>
       </c>
       <c r="C80">
-        <v>-0.02641287363936122</v>
+        <v>0.0006403514203575332</v>
       </c>
       <c r="D80">
-        <v>0.1166764135025846</v>
+        <v>-0.05868794366439847</v>
       </c>
       <c r="E80">
-        <v>-0.03571961616628101</v>
+        <v>-0.03608149945434249</v>
       </c>
       <c r="F80">
-        <v>0.06582823258990449</v>
+        <v>-0.01564351110268803</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1385418715098912</v>
+        <v>-0.1233817746361705</v>
       </c>
       <c r="C81">
-        <v>-0.06229455761240171</v>
+        <v>-0.03028607954640841</v>
       </c>
       <c r="D81">
-        <v>0.05849339287101776</v>
+        <v>-0.01881011107086677</v>
       </c>
       <c r="E81">
-        <v>-0.004510304349645462</v>
+        <v>-0.06031351442116215</v>
       </c>
       <c r="F81">
-        <v>0.03684946651780562</v>
+        <v>0.006479671646662605</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1566611327144404</v>
+        <v>-0.1639249654469915</v>
       </c>
       <c r="C82">
-        <v>-0.04256664305039118</v>
+        <v>-0.0215970834508573</v>
       </c>
       <c r="D82">
-        <v>0.05329847164642134</v>
+        <v>-0.01612073377837879</v>
       </c>
       <c r="E82">
-        <v>-0.02956960593953186</v>
+        <v>-0.03506194357204098</v>
       </c>
       <c r="F82">
-        <v>0.05465570368342634</v>
+        <v>0.06507051316391357</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08512322592983097</v>
+        <v>-0.06302971653394052</v>
       </c>
       <c r="C83">
-        <v>-0.1099631013289746</v>
+        <v>-0.003467233574263107</v>
       </c>
       <c r="D83">
-        <v>0.09498964973345649</v>
+        <v>-0.04972733347865864</v>
       </c>
       <c r="E83">
-        <v>0.02560658984418164</v>
+        <v>-0.005111538024749856</v>
       </c>
       <c r="F83">
-        <v>0.02729819745123978</v>
+        <v>-0.04222596510465688</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05714286938191519</v>
+        <v>-0.05908697193229318</v>
       </c>
       <c r="C84">
-        <v>0.06256502508539773</v>
+        <v>-0.0110818544130767</v>
       </c>
       <c r="D84">
-        <v>-0.06708442473963815</v>
+        <v>-0.06403745769986889</v>
       </c>
       <c r="E84">
-        <v>-0.05227971981330383</v>
+        <v>-0.00175473149697989</v>
       </c>
       <c r="F84">
-        <v>-0.006789415337966035</v>
+        <v>0.009808531942355321</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1254786850061809</v>
+        <v>-0.1387813370812904</v>
       </c>
       <c r="C85">
-        <v>-0.0405297830188347</v>
+        <v>-0.02602889035828995</v>
       </c>
       <c r="D85">
-        <v>0.03395431080200701</v>
+        <v>-0.01562136219808907</v>
       </c>
       <c r="E85">
-        <v>-0.009616140308496472</v>
+        <v>-0.04159714025036874</v>
       </c>
       <c r="F85">
-        <v>0.06225898403973278</v>
+        <v>0.04598505710347686</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1719984633146875</v>
+        <v>-0.09614762088386596</v>
       </c>
       <c r="C86">
-        <v>-0.5646199574222261</v>
+        <v>0.007100476896127526</v>
       </c>
       <c r="D86">
-        <v>-0.7452570955455571</v>
+        <v>-0.02202967822430482</v>
       </c>
       <c r="E86">
-        <v>-0.02530753456032883</v>
+        <v>-0.1528140145585819</v>
       </c>
       <c r="F86">
-        <v>-0.06635286716114658</v>
+        <v>-0.8679473157819402</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1095977449889711</v>
+        <v>-0.0983985206265873</v>
       </c>
       <c r="C87">
-        <v>-0.08458401618077148</v>
+        <v>-0.02512053754403263</v>
       </c>
       <c r="D87">
-        <v>0.06873680930548232</v>
+        <v>-0.07667795652998362</v>
       </c>
       <c r="E87">
-        <v>0.02170630190608947</v>
+        <v>0.0543801791719205</v>
       </c>
       <c r="F87">
-        <v>0.04155329377015064</v>
+        <v>0.07765059392601671</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05232633904176237</v>
+        <v>-0.061120001427508</v>
       </c>
       <c r="C88">
-        <v>-0.02119535233466935</v>
+        <v>-0.002850615173198406</v>
       </c>
       <c r="D88">
-        <v>0.05518390088538438</v>
+        <v>-0.05363044113300412</v>
       </c>
       <c r="E88">
-        <v>-0.06041422428778851</v>
+        <v>-0.02763154577050535</v>
       </c>
       <c r="F88">
-        <v>0.0273464280978935</v>
+        <v>0.00880367290026004</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1899459616705608</v>
+        <v>-0.1358542119589224</v>
       </c>
       <c r="C89">
-        <v>0.3199594567794747</v>
+        <v>-0.008412546911985645</v>
       </c>
       <c r="D89">
-        <v>-0.1795841531257447</v>
+        <v>0.257232742849212</v>
       </c>
       <c r="E89">
-        <v>0.05745380137434753</v>
+        <v>0.09145569844692167</v>
       </c>
       <c r="F89">
-        <v>-0.02344465760143349</v>
+        <v>0.02288911701847628</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1490499307465031</v>
+        <v>-0.1460335526930445</v>
       </c>
       <c r="C90">
-        <v>0.2291961895556041</v>
+        <v>-0.02581119936465484</v>
       </c>
       <c r="D90">
-        <v>-0.115915163553628</v>
+        <v>0.2665088491060669</v>
       </c>
       <c r="E90">
-        <v>-0.02948817691893895</v>
+        <v>0.1087750152068787</v>
       </c>
       <c r="F90">
-        <v>-0.008499207038366598</v>
+        <v>0.02248277364548808</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08061223531448264</v>
+        <v>-0.1187442295573346</v>
       </c>
       <c r="C91">
-        <v>-0.04228603968564194</v>
+        <v>-0.01680065934066663</v>
       </c>
       <c r="D91">
-        <v>0.008436631601066003</v>
+        <v>0.00761927529797381</v>
       </c>
       <c r="E91">
-        <v>-0.007128685501288071</v>
+        <v>-0.05795745352972952</v>
       </c>
       <c r="F91">
-        <v>0.0387280800273859</v>
+        <v>-0.01901873804444581</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.164247055779415</v>
+        <v>-0.1490751594571934</v>
       </c>
       <c r="C92">
-        <v>0.2733221887770254</v>
+        <v>-0.017653186545041</v>
       </c>
       <c r="D92">
-        <v>-0.140843183536148</v>
+        <v>0.2967859214072597</v>
       </c>
       <c r="E92">
-        <v>0.03240512016456649</v>
+        <v>0.1042707423140887</v>
       </c>
       <c r="F92">
-        <v>-0.03064414783514698</v>
+        <v>0.01778024938588302</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1520488124361599</v>
+        <v>-0.1507692503266253</v>
       </c>
       <c r="C93">
-        <v>0.2674637477065707</v>
+        <v>-0.02239836545997226</v>
       </c>
       <c r="D93">
-        <v>-0.1714318448172531</v>
+        <v>0.2695082635331736</v>
       </c>
       <c r="E93">
-        <v>-0.05627204636808988</v>
+        <v>0.07478218161653007</v>
       </c>
       <c r="F93">
-        <v>-0.01805948758552849</v>
+        <v>0.01687368060849079</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1332673218565745</v>
+        <v>-0.1331816269357327</v>
       </c>
       <c r="C94">
-        <v>-0.02324034815758716</v>
+        <v>-0.02381033654112088</v>
       </c>
       <c r="D94">
-        <v>0.06103047105540783</v>
+        <v>-0.04600138706754497</v>
       </c>
       <c r="E94">
-        <v>0.0211559533325766</v>
+        <v>-0.06167894491279469</v>
       </c>
       <c r="F94">
-        <v>0.03573457000148681</v>
+        <v>0.03214256671830419</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1117021666162297</v>
+        <v>-0.1254117285737658</v>
       </c>
       <c r="C95">
-        <v>-0.02543419058925954</v>
+        <v>-0.005237202886242845</v>
       </c>
       <c r="D95">
-        <v>0.05152101252165289</v>
+        <v>-0.09076788964579731</v>
       </c>
       <c r="E95">
-        <v>0.04614342148750918</v>
+        <v>-0.04439125126469314</v>
       </c>
       <c r="F95">
-        <v>0.05260807879258405</v>
+        <v>-0.01505895848577694</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01016161141510477</v>
+        <v>-0.09890025767888139</v>
       </c>
       <c r="C96">
-        <v>-0.0006567269961348521</v>
+        <v>0.9888852324818828</v>
       </c>
       <c r="D96">
-        <v>0.001035259851876819</v>
+        <v>0.02978525228418002</v>
       </c>
       <c r="E96">
-        <v>0.006071363875320914</v>
+        <v>-0.0575824328447769</v>
       </c>
       <c r="F96">
-        <v>-0.00781265593057053</v>
+        <v>0.04762377543011578</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1726919178583459</v>
+        <v>-0.1881414816076813</v>
       </c>
       <c r="C97">
-        <v>-0.08552118684750373</v>
+        <v>0.01076841701200892</v>
       </c>
       <c r="D97">
-        <v>0.1660097277562212</v>
+        <v>0.00761743873909934</v>
       </c>
       <c r="E97">
-        <v>0.04639115496344538</v>
+        <v>-0.01845477796277945</v>
       </c>
       <c r="F97">
-        <v>-0.8954811877381269</v>
+        <v>-0.1759811087492761</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2457564889590737</v>
+        <v>-0.2054160773840287</v>
       </c>
       <c r="C98">
-        <v>-0.06018944694466423</v>
+        <v>-0.007216643938214874</v>
       </c>
       <c r="D98">
-        <v>0.0006309734139460758</v>
+        <v>-0.009611516592591482</v>
       </c>
       <c r="E98">
-        <v>0.07580168300762689</v>
+        <v>0.09824553238024117</v>
       </c>
       <c r="F98">
-        <v>0.02530328904288094</v>
+        <v>-0.1106116016014558</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04432266678169551</v>
+        <v>-0.05600076172505016</v>
       </c>
       <c r="C99">
-        <v>0.02584670327776896</v>
+        <v>0.003941956208200626</v>
       </c>
       <c r="D99">
-        <v>0.03370289968904808</v>
+        <v>-0.03599920905736557</v>
       </c>
       <c r="E99">
-        <v>0.02394901416272322</v>
+        <v>-0.0264761803076657</v>
       </c>
       <c r="F99">
-        <v>0.02220185310477116</v>
+        <v>0.004029699962955811</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.02412289828663858</v>
+        <v>-0.124177921040795</v>
       </c>
       <c r="C100">
-        <v>0.01268550741477218</v>
+        <v>0.05004177791550874</v>
       </c>
       <c r="D100">
-        <v>0.1405611254929595</v>
+        <v>-0.3466871258033791</v>
       </c>
       <c r="E100">
-        <v>-0.04372247448408086</v>
+        <v>0.8947152857678516</v>
       </c>
       <c r="F100">
-        <v>-0.05097182080345786</v>
+        <v>-0.07678531522989332</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03277330025065536</v>
+        <v>-0.02688995659024955</v>
       </c>
       <c r="C101">
-        <v>-0.008360364691155902</v>
+        <v>-0.008541850026250406</v>
       </c>
       <c r="D101">
-        <v>0.03033051452336653</v>
+        <v>-0.03167534273554585</v>
       </c>
       <c r="E101">
-        <v>-0.02606666182101136</v>
+        <v>-0.01116445543299014</v>
       </c>
       <c r="F101">
-        <v>0.03559719572412318</v>
+        <v>-0.01426783115903335</v>
       </c>
     </row>
     <row r="102" spans="1:6">
